--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16055C3B-1AE5-4B36-9227-39CF765E4D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D70BB-5ADB-4F71-9E72-459EEFBFF1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,24 +536,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,10 +598,10 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>820</v>
       </c>
       <c r="E2" s="1">
@@ -626,7 +626,7 @@
         <v>41.526315789473685</v>
       </c>
       <c r="L2" s="1">
-        <v>27.368421052631579</v>
+        <v>34.315789473684212</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>815</v>
       </c>
       <c r="E3" s="1">
@@ -664,7 +664,7 @@
         <v>37.277777777777779</v>
       </c>
       <c r="L3" s="1">
-        <v>22.166666666666668</v>
+        <v>35.944444444444443</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>880</v>
       </c>
       <c r="E4" s="1">
@@ -702,7 +702,7 @@
         <v>44.235294117647058</v>
       </c>
       <c r="L4" s="1">
-        <v>29.352941176470587</v>
+        <v>40.588235294117645</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>820</v>
       </c>
       <c r="E5" s="1">
@@ -740,7 +740,7 @@
         <v>35.588235294117645</v>
       </c>
       <c r="L5" s="1">
-        <v>22.058823529411764</v>
+        <v>32.294117647058826</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>720</v>
       </c>
       <c r="E6" s="1">
@@ -778,7 +778,7 @@
         <v>50.647058823529413</v>
       </c>
       <c r="L6" s="1">
-        <v>28.470588235294116</v>
+        <v>38.470588235294116</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,10 +788,10 @@
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>650</v>
       </c>
       <c r="E7" s="1">
@@ -816,7 +816,7 @@
         <v>24.125</v>
       </c>
       <c r="L7" s="1">
-        <v>17.5625</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>660</v>
       </c>
       <c r="E8" s="1">
@@ -854,7 +854,7 @@
         <v>39.6875</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0625</v>
+        <v>31.9375</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>620</v>
       </c>
       <c r="E9" s="1">
@@ -892,7 +892,7 @@
         <v>35.133333333333333</v>
       </c>
       <c r="L9" s="1">
-        <v>26.333333333333332</v>
+        <v>32.733333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -902,10 +902,10 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>630</v>
       </c>
       <c r="E10" s="1">
@@ -930,7 +930,7 @@
         <v>47.6</v>
       </c>
       <c r="L10" s="1">
-        <v>28.2</v>
+        <v>32.333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>675</v>
       </c>
       <c r="E11" s="1">
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="L11" s="1">
-        <v>25.866666666666667</v>
+        <v>38.266666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>620</v>
       </c>
       <c r="E12" s="1">
@@ -1006,7 +1006,7 @@
         <v>41.93333333333333</v>
       </c>
       <c r="L12" s="1">
-        <v>23.2</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>680</v>
       </c>
       <c r="E13" s="1">
@@ -1044,7 +1044,7 @@
         <v>23.866666666666667</v>
       </c>
       <c r="L13" s="1">
-        <v>15.733333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1054,10 +1054,10 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>640</v>
       </c>
       <c r="E14" s="1">
@@ -1082,7 +1082,7 @@
         <v>52.785714285714285</v>
       </c>
       <c r="L14" s="1">
-        <v>37.357142857142854</v>
+        <v>42.214285714285715</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>650</v>
       </c>
       <c r="E15" s="1">
@@ -1130,10 +1130,10 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>660</v>
       </c>
       <c r="E16" s="1">
@@ -1158,7 +1158,7 @@
         <v>36.071428571428569</v>
       </c>
       <c r="L16" s="1">
-        <v>25.857142857142858</v>
+        <v>28.214285714285715</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,10 +1168,10 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>525</v>
       </c>
       <c r="E17" s="1">
@@ -1196,7 +1196,7 @@
         <v>34.307692307692307</v>
       </c>
       <c r="L17" s="1">
-        <v>17.76923076923077</v>
+        <v>28.46153846153846</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1206,10 +1206,10 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>400</v>
       </c>
       <c r="E18" s="1">
@@ -1234,7 +1234,7 @@
         <v>34</v>
       </c>
       <c r="L18" s="1">
-        <v>20.076923076923077</v>
+        <v>42.53846153846154</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,10 +1244,10 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>510</v>
       </c>
       <c r="E19" s="1">
@@ -1272,7 +1272,7 @@
         <v>36.92307692307692</v>
       </c>
       <c r="L19" s="1">
-        <v>20.615384615384617</v>
+        <v>25.692307692307693</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
       <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>695</v>
       </c>
       <c r="E20" s="1">
@@ -1310,7 +1310,7 @@
         <v>35.153846153846153</v>
       </c>
       <c r="L20" s="1">
-        <v>25.46153846153846</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
       <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>615</v>
       </c>
       <c r="E21" s="1">
@@ -1348,7 +1348,7 @@
         <v>34.769230769230766</v>
       </c>
       <c r="L21" s="1">
-        <v>28.923076923076923</v>
+        <v>31.384615384615383</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1364,28 +1364,28 @@
       <c r="D22">
         <v>150</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>50</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>625</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>208.33333333333334</v>
       </c>
-      <c r="H22" s="1" t="e">
+      <c r="H22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I22" s="1" t="e">
+      <c r="I22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J22" s="1" t="e">
+      <c r="J22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K22" s="1" t="e">
+      <c r="K22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L22" s="1" t="e">
+      <c r="L22" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -1402,28 +1402,28 @@
       <c r="D23">
         <v>55</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>55</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>450</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>450</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>450</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>450</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>45</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>85</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>45</v>
       </c>
     </row>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -116,34 +116,43 @@
     <t>Hakim Ben El Hadj Salem</t>
   </si>
   <si>
+    <t>Willy Delajod</t>
+  </si>
+  <si>
+    <t>Gaël Angoula</t>
+  </si>
+  <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
+    <t>Abdelatif Kherradji</t>
+  </si>
+  <si>
     <t>Stéphanie Frappart</t>
   </si>
   <si>
     <t>Jérémie Pignard</t>
   </si>
   <si>
-    <t>Willy Delajod</t>
-  </si>
-  <si>
     <t>Mathieu Vernice</t>
   </si>
   <si>
-    <t>Gaël Angoula</t>
+    <t>Eric Wattellier</t>
   </si>
   <si>
     <t>Benoît Millot</t>
   </si>
   <si>
+    <t>Bastien Dechepy</t>
+  </si>
+  <si>
     <t>Thomas Léonard</t>
   </si>
   <si>
     <t>Benoît Bastien</t>
   </si>
   <si>
-    <t>Marc Bollengier</t>
-  </si>
-  <si>
-    <t>Abdelatif Kherradji</t>
+    <t>François Letexier</t>
   </si>
   <si>
     <t>Clément Turpin</t>
@@ -153,15 +162,6 @@
   </si>
   <si>
     <t>Jérôme Brisard</t>
-  </si>
-  <si>
-    <t>Eric Wattellier</t>
-  </si>
-  <si>
-    <t>Bastien Dechepy</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
   </si>
 </sst>
 </file>
@@ -300,37 +300,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.0</v>
+        <v>245.0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.0</v>
+        <v>61.25</v>
       </c>
       <c r="F3" t="n">
         <v>5000.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1666.6666666666667</v>
+        <v>1250.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3000.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1000.0</v>
+        <v>775.0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.666666666666668</v>
+        <v>24.25</v>
       </c>
       <c r="K3" t="n">
-        <v>31.666666666666668</v>
+        <v>23.75</v>
       </c>
       <c r="L3" t="n">
-        <v>23.0</v>
+        <v>21.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.7777777777777777</v>
+        <v>2.227272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -341,37 +341,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.0</v>
+        <v>160.0</v>
       </c>
       <c r="E4" t="n">
-        <v>60.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F4" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>633.3333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>1600.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1200.0</v>
-      </c>
       <c r="I4" t="n">
-        <v>600.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>18.5</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K4" t="n">
-        <v>56.5</v>
+        <v>48.0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.5</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="M4" t="n">
-        <v>2.0689655172413794</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
     <row r="5">
@@ -382,37 +382,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.5</v>
+        <v>40.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G5" t="n">
-        <v>800.0</v>
+        <v>300.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2100.0</v>
+        <v>900.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1050.0</v>
+        <v>300.0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.5</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>15.0</v>
+        <v>51.0</v>
       </c>
       <c r="L5" t="n">
-        <v>15.0</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5510204081632653</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -423,37 +423,37 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>70.0</v>
+        <v>115.0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F6" t="n">
-        <v>500.0</v>
+        <v>400.0</v>
       </c>
       <c r="G6" t="n">
-        <v>250.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>600.0</v>
+        <v>1150.0</v>
       </c>
       <c r="I6" t="n">
-        <v>300.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>26.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K6" t="n">
-        <v>29.5</v>
+        <v>20.0</v>
       </c>
       <c r="L6" t="n">
-        <v>22.5</v>
+        <v>20.0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.0588235294117645</v>
+        <v>1.4024390243902438</v>
       </c>
     </row>
     <row r="7">
@@ -467,34 +467,34 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E7" t="n">
         <v>90.0</v>
       </c>
-      <c r="E7" t="n">
-        <v>45.0</v>
-      </c>
       <c r="F7" t="n">
+        <v>2950.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1475.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>700.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>450.0</v>
-      </c>
       <c r="J7" t="n">
-        <v>33.0</v>
+        <v>65.5</v>
       </c>
       <c r="K7" t="n">
-        <v>39.0</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.7647058823529411</v>
+        <v>3.0508474576271185</v>
       </c>
     </row>
     <row r="8">
@@ -508,34 +508,34 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>80.0</v>
+        <v>95.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>47.5</v>
       </c>
       <c r="F8" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G8" t="n">
-        <v>300.0</v>
+        <v>450.0</v>
       </c>
       <c r="H8" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>38.5</v>
+        <v>33.0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5</v>
+        <v>36.5</v>
       </c>
       <c r="L8" t="n">
-        <v>31.5</v>
+        <v>33.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.6</v>
+        <v>1.8269230769230769</v>
       </c>
     </row>
     <row r="9">
@@ -549,34 +549,34 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
       <c r="E9" t="n">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="H9" t="n">
-        <v>850.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I9" t="n">
-        <v>425.0</v>
+        <v>1050.0</v>
       </c>
       <c r="J9" t="n">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="K9" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="L9" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.3636363636363635</v>
+        <v>2.5510204081632653</v>
       </c>
     </row>
     <row r="10">
@@ -590,34 +590,34 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.0</v>
+        <v>70.0</v>
       </c>
       <c r="E10" t="n">
-        <v>67.5</v>
+        <v>35.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1900.0</v>
+        <v>500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>950.0</v>
+        <v>250.0</v>
       </c>
       <c r="H10" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.5</v>
+        <v>26.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.0</v>
+        <v>29.5</v>
       </c>
       <c r="L10" t="n">
-        <v>47.0</v>
+        <v>22.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.9347826086956523</v>
+        <v>2.0588235294117645</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="F11" t="n">
         <v>600.0</v>
@@ -643,22 +643,22 @@
         <v>300.0</v>
       </c>
       <c r="H11" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I11" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="K11" t="n">
-        <v>19.5</v>
+        <v>42.5</v>
       </c>
       <c r="L11" t="n">
-        <v>19.5</v>
+        <v>31.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12">
@@ -672,34 +672,34 @@
         <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0</v>
+        <v>50.0</v>
       </c>
       <c r="E12" t="n">
-        <v>72.5</v>
+        <v>25.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2800.0</v>
+        <v>100.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1400.0</v>
+        <v>50.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1400.0</v>
+        <v>200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="J12" t="n">
-        <v>38.5</v>
+        <v>26.5</v>
       </c>
       <c r="K12" t="n">
-        <v>12.5</v>
+        <v>50.0</v>
       </c>
       <c r="L12" t="n">
-        <v>12.5</v>
+        <v>48.0</v>
       </c>
       <c r="M12" t="n">
-        <v>4.53125</v>
+        <v>1.2820512820512822</v>
       </c>
     </row>
     <row r="13">
@@ -710,37 +710,37 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>85.0</v>
+        <v>135.0</v>
       </c>
       <c r="E13" t="n">
-        <v>85.0</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>750.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G13" t="n">
-        <v>750.0</v>
+        <v>950.0</v>
       </c>
       <c r="H13" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I13" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0</v>
+        <v>51.5</v>
       </c>
       <c r="K13" t="n">
-        <v>11.0</v>
+        <v>47.0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.0</v>
+        <v>47.0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>2.9347826086956523</v>
       </c>
     </row>
     <row r="14">
@@ -751,37 +751,37 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
         <v>30.0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0</v>
+        <v>22.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="L14" t="n">
-        <v>13.0</v>
+        <v>22.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0344827586206897</v>
+        <v>0.6976744186046512</v>
       </c>
     </row>
     <row r="15">
@@ -792,37 +792,37 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F15" t="n">
         <v>600.0</v>
       </c>
       <c r="G15" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="H15" t="n">
         <v>600.0</v>
       </c>
       <c r="I15" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J15" t="n">
-        <v>26.0</v>
+        <v>16.5</v>
       </c>
       <c r="K15" t="n">
-        <v>39.0</v>
+        <v>19.5</v>
       </c>
       <c r="L15" t="n">
-        <v>26.0</v>
+        <v>19.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -833,37 +833,37 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0</v>
+        <v>145.0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.0</v>
+        <v>72.5</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0</v>
+        <v>1400.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>700.0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.0</v>
+        <v>38.5</v>
       </c>
       <c r="K16" t="n">
-        <v>19.0</v>
+        <v>12.5</v>
       </c>
       <c r="L16" t="n">
-        <v>19.0</v>
+        <v>12.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6060606060606061</v>
+        <v>4.53125</v>
       </c>
     </row>
     <row r="17">
@@ -874,37 +874,37 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.0</v>
+        <v>105.0</v>
       </c>
       <c r="E17" t="n">
-        <v>40.0</v>
+        <v>52.5</v>
       </c>
       <c r="F17" t="n">
-        <v>400.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.0</v>
+        <v>700.0</v>
       </c>
       <c r="H17" t="n">
         <v>300.0</v>
       </c>
       <c r="I17" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="J17" t="n">
-        <v>64.0</v>
+        <v>57.0</v>
       </c>
       <c r="K17" t="n">
-        <v>7.0</v>
+        <v>41.0</v>
       </c>
       <c r="L17" t="n">
-        <v>7.0</v>
+        <v>41.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="18">
@@ -918,34 +918,34 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="E18" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="G18" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.0</v>
+        <v>26.0</v>
       </c>
       <c r="K18" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
       <c r="L18" t="n">
-        <v>53.0</v>
+        <v>26.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9523809523809523</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -959,16 +959,16 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
@@ -977,16 +977,16 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="20">
@@ -1000,34 +1000,34 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="F20" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="G20" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J20" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="K20" t="n">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="L20" t="n">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Referee</t>
   </si>
@@ -107,61 +107,64 @@
     <t>19</t>
   </si>
   <si>
-    <t/>
+    <t>20</t>
   </si>
   <si>
     <t>Jeremy Stinat</t>
   </si>
   <si>
+    <t>Willy Delajod</t>
+  </si>
+  <si>
+    <t>Gaël Angoula</t>
+  </si>
+  <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
     <t>Hakim Ben El Hadj Salem</t>
   </si>
   <si>
-    <t>Willy Delajod</t>
-  </si>
-  <si>
-    <t>Gaël Angoula</t>
-  </si>
-  <si>
-    <t>Marc Bollengier</t>
-  </si>
-  <si>
     <t>Abdelatif Kherradji</t>
   </si>
   <si>
     <t>Stéphanie Frappart</t>
   </si>
   <si>
+    <t>Clément Turpin</t>
+  </si>
+  <si>
+    <t>Mathieu Vernice</t>
+  </si>
+  <si>
+    <t>Eric Wattellier</t>
+  </si>
+  <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
+    <t>Bastien Dechepy</t>
+  </si>
+  <si>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
+  </si>
+  <si>
     <t>Jérémie Pignard</t>
   </si>
   <si>
-    <t>Mathieu Vernice</t>
-  </si>
-  <si>
-    <t>Eric Wattellier</t>
-  </si>
-  <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>Bastien Dechepy</t>
-  </si>
-  <si>
-    <t>Thomas Léonard</t>
-  </si>
-  <si>
-    <t>Benoît Bastien</t>
+    <t>Florent Batta</t>
+  </si>
+  <si>
+    <t>Romain Lissorgue</t>
+  </si>
+  <si>
+    <t>Jérôme Brisard</t>
   </si>
   <si>
     <t>François Letexier</t>
-  </si>
-  <si>
-    <t>Clément Turpin</t>
-  </si>
-  <si>
-    <t>Florent Batta</t>
-  </si>
-  <si>
-    <t>Jérôme Brisard</t>
   </si>
 </sst>
 </file>
@@ -255,8 +258,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -300,37 +303,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>245.0</v>
+        <v>285.0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.25</v>
+        <v>57.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5000.0</v>
+        <v>5400.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1250.0</v>
+        <v>1080.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3100.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I3" t="n">
-        <v>775.0</v>
+        <v>680.0</v>
       </c>
       <c r="J3" t="n">
-        <v>24.25</v>
+        <v>31.4</v>
       </c>
       <c r="K3" t="n">
-        <v>23.75</v>
+        <v>21.0</v>
       </c>
       <c r="L3" t="n">
-        <v>21.5</v>
+        <v>19.2</v>
       </c>
       <c r="M3" t="n">
-        <v>2.227272727272727</v>
+        <v>2.159090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -341,37 +344,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.333333333333336</v>
+        <v>45.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1900.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G4" t="n">
-        <v>633.3333333333334</v>
+        <v>425.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I4" t="n">
-        <v>533.3333333333334</v>
+        <v>450.0</v>
       </c>
       <c r="J4" t="n">
-        <v>29.666666666666668</v>
+        <v>32.25</v>
       </c>
       <c r="K4" t="n">
-        <v>48.0</v>
+        <v>44.5</v>
       </c>
       <c r="L4" t="n">
-        <v>22.666666666666668</v>
+        <v>21.0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.051282051282051</v>
+        <v>1.894736842105263</v>
       </c>
     </row>
     <row r="5">
@@ -382,37 +385,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>120.0</v>
+        <v>145.0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>36.25</v>
       </c>
       <c r="F5" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="H5" t="n">
-        <v>900.0</v>
+        <v>1350.0</v>
       </c>
       <c r="I5" t="n">
-        <v>300.0</v>
+        <v>337.5</v>
       </c>
       <c r="J5" t="n">
-        <v>40.666666666666664</v>
+        <v>38.5</v>
       </c>
       <c r="K5" t="n">
-        <v>51.0</v>
+        <v>37.25</v>
       </c>
       <c r="L5" t="n">
-        <v>25.666666666666668</v>
+        <v>23.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6</v>
+        <v>1.4077669902912622</v>
       </c>
     </row>
     <row r="6">
@@ -426,34 +429,34 @@
         <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.0</v>
+        <v>210.0</v>
       </c>
       <c r="E6" t="n">
-        <v>38.333333333333336</v>
+        <v>70.0</v>
       </c>
       <c r="F6" t="n">
-        <v>400.0</v>
+        <v>3150.0</v>
       </c>
       <c r="G6" t="n">
-        <v>133.33333333333334</v>
+        <v>1050.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1150.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I6" t="n">
-        <v>383.3333333333333</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>40.333333333333336</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>20.0</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="L6" t="n">
-        <v>20.0</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="M6" t="n">
-        <v>1.4024390243902438</v>
+        <v>2.8378378378378377</v>
       </c>
     </row>
     <row r="7">
@@ -464,37 +467,37 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>180.0</v>
+        <v>160.0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F7" t="n">
-        <v>2950.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1475.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1400.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I7" t="n">
-        <v>700.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>65.5</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5</v>
+        <v>48.0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>3.0508474576271185</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
     <row r="8">
@@ -505,37 +508,37 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.0</v>
+        <v>165.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47.5</v>
+        <v>55.0</v>
       </c>
       <c r="F8" t="n">
-        <v>900.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G8" t="n">
-        <v>450.0</v>
+        <v>700.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="K8" t="n">
-        <v>36.5</v>
+        <v>36.0</v>
       </c>
       <c r="L8" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8269230769230769</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="9">
@@ -546,37 +549,37 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>125.0</v>
+        <v>185.0</v>
       </c>
       <c r="E9" t="n">
-        <v>62.5</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="F9" t="n">
-        <v>1600.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G9" t="n">
         <v>800.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2100.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1050.0</v>
+        <v>966.6666666666666</v>
       </c>
       <c r="J9" t="n">
-        <v>32.5</v>
+        <v>29.0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.0</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L9" t="n">
-        <v>15.0</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5510204081632653</v>
+        <v>2.2560975609756095</v>
       </c>
     </row>
     <row r="10">
@@ -587,37 +590,37 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.0</v>
+        <v>165.0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
       <c r="F10" t="n">
-        <v>500.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G10" t="n">
-        <v>250.0</v>
+        <v>750.0</v>
       </c>
       <c r="H10" t="n">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I10" t="n">
-        <v>300.0</v>
+        <v>700.0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.0</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="K10" t="n">
-        <v>29.5</v>
+        <v>34.0</v>
       </c>
       <c r="L10" t="n">
-        <v>22.5</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="M10" t="n">
-        <v>2.0588235294117645</v>
+        <v>2.357142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -628,37 +631,37 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
       <c r="E11" t="n">
         <v>40.0</v>
       </c>
       <c r="F11" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G11" t="n">
         <v>300.0</v>
       </c>
       <c r="H11" t="n">
-        <v>800.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I11" t="n">
-        <v>400.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>38.5</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="K11" t="n">
-        <v>42.5</v>
+        <v>40.0</v>
       </c>
       <c r="L11" t="n">
-        <v>31.5</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="12">
@@ -669,37 +672,37 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="F12" t="n">
-        <v>100.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.0</v>
+        <v>616.6666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>26.5</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="K12" t="n">
-        <v>50.0</v>
+        <v>37.0</v>
       </c>
       <c r="L12" t="n">
-        <v>48.0</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="M12" t="n">
-        <v>1.2820512820512822</v>
+        <v>2.0454545454545454</v>
       </c>
     </row>
     <row r="13">
@@ -710,37 +713,37 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>135.0</v>
+        <v>225.0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.5</v>
+        <v>75.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1900.0</v>
+        <v>3525.0</v>
       </c>
       <c r="G13" t="n">
-        <v>950.0</v>
+        <v>1175.0</v>
       </c>
       <c r="H13" t="n">
-        <v>800.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I13" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.5</v>
+        <v>40.0</v>
       </c>
       <c r="K13" t="n">
-        <v>47.0</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="L13" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.9347826086956523</v>
+        <v>2.960526315789474</v>
       </c>
     </row>
     <row r="14">
@@ -751,37 +754,37 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F14" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>200.0</v>
       </c>
-      <c r="G14" t="n">
-        <v>100.0</v>
-      </c>
       <c r="H14" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>22.5</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="K14" t="n">
-        <v>34.0</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="L14" t="n">
-        <v>22.5</v>
+        <v>28.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="15">
@@ -792,37 +795,37 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0</v>
+        <v>120.0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="F15" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>300.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I15" t="n">
-        <v>300.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>16.5</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="K15" t="n">
-        <v>19.5</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="L15" t="n">
-        <v>19.5</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M15" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.9672131147540983</v>
       </c>
     </row>
     <row r="16">
@@ -833,37 +836,37 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0</v>
+        <v>225.0</v>
       </c>
       <c r="E16" t="n">
-        <v>72.5</v>
+        <v>75.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2800.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1400.0</v>
+        <v>1433.3333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I16" t="n">
-        <v>700.0</v>
+        <v>866.6666666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>38.5</v>
+        <v>45.0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.5</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="L16" t="n">
-        <v>12.5</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="M16" t="n">
-        <v>4.53125</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="17">
@@ -877,34 +880,34 @@
         <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>105.0</v>
+        <v>70.0</v>
       </c>
       <c r="E17" t="n">
-        <v>52.5</v>
+        <v>35.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1400.0</v>
+        <v>500.0</v>
       </c>
       <c r="G17" t="n">
-        <v>700.0</v>
+        <v>250.0</v>
       </c>
       <c r="H17" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>300.0</v>
       </c>
-      <c r="I17" t="n">
-        <v>150.0</v>
-      </c>
       <c r="J17" t="n">
-        <v>57.0</v>
+        <v>26.0</v>
       </c>
       <c r="K17" t="n">
-        <v>41.0</v>
+        <v>29.5</v>
       </c>
       <c r="L17" t="n">
-        <v>41.0</v>
+        <v>22.5</v>
       </c>
       <c r="M17" t="n">
-        <v>2.3333333333333335</v>
+        <v>2.0588235294117645</v>
       </c>
     </row>
     <row r="18">
@@ -915,37 +918,37 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="F18" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="G18" t="n">
-        <v>600.0</v>
+        <v>350.0</v>
       </c>
       <c r="H18" t="n">
         <v>600.0</v>
       </c>
       <c r="I18" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.0</v>
+        <v>28.5</v>
       </c>
       <c r="K18" t="n">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="L18" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -956,37 +959,37 @@
         <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="E19" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="F19" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>100.0</v>
       </c>
-      <c r="G19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J19" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="K19" t="n">
-        <v>19.0</v>
+        <v>15.5</v>
       </c>
       <c r="L19" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6060606060606061</v>
+        <v>2.4489795918367347</v>
       </c>
     </row>
     <row r="20">
@@ -997,37 +1000,78 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="E20" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="F20" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="H20" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.5909090909090908</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="H21" t="n">
         <v>300.0</v>
       </c>
-      <c r="I20" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.4285714285714286</v>
+      <c r="I21" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -137,34 +137,34 @@
     <t>Mathieu Vernice</t>
   </si>
   <si>
+    <t>Jérôme Brisard</t>
+  </si>
+  <si>
     <t>Eric Wattellier</t>
   </si>
   <si>
+    <t>Bastien Dechepy</t>
+  </si>
+  <si>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
+  </si>
+  <si>
+    <t>Jérémie Pignard</t>
+  </si>
+  <si>
+    <t>Florent Batta</t>
+  </si>
+  <si>
     <t>Benoît Millot</t>
   </si>
   <si>
-    <t>Bastien Dechepy</t>
-  </si>
-  <si>
-    <t>Thomas Léonard</t>
-  </si>
-  <si>
-    <t>Benoît Bastien</t>
-  </si>
-  <si>
-    <t>Jérémie Pignard</t>
-  </si>
-  <si>
-    <t>Florent Batta</t>
+    <t>François Letexier</t>
   </si>
   <si>
     <t>Romain Lissorgue</t>
-  </si>
-  <si>
-    <t>Jérôme Brisard</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
   </si>
 </sst>
 </file>
@@ -303,37 +303,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n">
-        <v>285.0</v>
+        <v>325.0</v>
       </c>
       <c r="E3" t="n">
-        <v>57.0</v>
+        <v>54.166666666666664</v>
       </c>
       <c r="F3" t="n">
         <v>5400.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1080.0</v>
+        <v>900.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I3" t="n">
-        <v>680.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J3" t="n">
-        <v>31.4</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="K3" t="n">
-        <v>21.0</v>
+        <v>24.833333333333332</v>
       </c>
       <c r="L3" t="n">
-        <v>19.2</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="M3" t="n">
-        <v>2.159090909090909</v>
+        <v>2.1241830065359477</v>
       </c>
     </row>
     <row r="4">
@@ -344,37 +344,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" t="n">
-        <v>180.0</v>
+        <v>265.0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1700.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G4" t="n">
-        <v>425.0</v>
+        <v>490.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1800.0</v>
+        <v>2450.0</v>
       </c>
       <c r="I4" t="n">
-        <v>450.0</v>
+        <v>490.0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.25</v>
+        <v>37.2</v>
       </c>
       <c r="K4" t="n">
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="L4" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.894736842105263</v>
+        <v>2.2457627118644066</v>
       </c>
     </row>
     <row r="5">
@@ -385,37 +385,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>145.0</v>
+        <v>165.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.25</v>
+        <v>33.0</v>
       </c>
       <c r="F5" t="n">
         <v>600.0</v>
       </c>
       <c r="G5" t="n">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1350.0</v>
+        <v>1450.0</v>
       </c>
       <c r="I5" t="n">
-        <v>337.5</v>
+        <v>290.0</v>
       </c>
       <c r="J5" t="n">
-        <v>38.5</v>
+        <v>30.8</v>
       </c>
       <c r="K5" t="n">
-        <v>37.25</v>
+        <v>36.8</v>
       </c>
       <c r="L5" t="n">
-        <v>23.25</v>
+        <v>25.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.4077669902912622</v>
+        <v>1.2790697674418605</v>
       </c>
     </row>
     <row r="6">
@@ -426,37 +426,37 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.0</v>
+        <v>62.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3150.0</v>
+        <v>3450.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1050.0</v>
+        <v>862.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1400.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>466.6666666666667</v>
+        <v>425.0</v>
       </c>
       <c r="J6" t="n">
-        <v>65.66666666666667</v>
+        <v>57.75</v>
       </c>
       <c r="K6" t="n">
-        <v>25.333333333333332</v>
+        <v>26.25</v>
       </c>
       <c r="L6" t="n">
-        <v>25.333333333333332</v>
+        <v>26.25</v>
       </c>
       <c r="M6" t="n">
-        <v>2.8378378378378377</v>
+        <v>2.577319587628866</v>
       </c>
     </row>
     <row r="7">
@@ -467,37 +467,37 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
-        <v>160.0</v>
+        <v>210.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.333333333333336</v>
+        <v>52.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1900.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G7" t="n">
-        <v>633.3333333333334</v>
+        <v>625.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I7" t="n">
-        <v>533.3333333333334</v>
+        <v>500.0</v>
       </c>
       <c r="J7" t="n">
-        <v>29.666666666666668</v>
+        <v>31.75</v>
       </c>
       <c r="K7" t="n">
-        <v>48.0</v>
+        <v>57.75</v>
       </c>
       <c r="L7" t="n">
-        <v>22.666666666666668</v>
+        <v>26.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.051282051282051</v>
+        <v>1.9090909090909092</v>
       </c>
     </row>
     <row r="8">
@@ -508,37 +508,37 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>165.0</v>
+        <v>185.0</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0</v>
+        <v>46.25</v>
       </c>
       <c r="F8" t="n">
-        <v>2100.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G8" t="n">
-        <v>700.0</v>
+        <v>550.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1000.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I8" t="n">
-        <v>333.3333333333333</v>
+        <v>275.0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.0</v>
+        <v>22.25</v>
       </c>
       <c r="K8" t="n">
-        <v>36.0</v>
+        <v>49.25</v>
       </c>
       <c r="L8" t="n">
-        <v>24.0</v>
+        <v>22.25</v>
       </c>
       <c r="M8" t="n">
-        <v>2.0625</v>
+        <v>1.712962962962963</v>
       </c>
     </row>
     <row r="9">
@@ -549,37 +549,37 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="n">
-        <v>185.0</v>
+        <v>215.0</v>
       </c>
       <c r="E9" t="n">
-        <v>61.666666666666664</v>
+        <v>53.75</v>
       </c>
       <c r="F9" t="n">
-        <v>2400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G9" t="n">
-        <v>800.0</v>
+        <v>650.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2900.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I9" t="n">
-        <v>966.6666666666666</v>
+        <v>775.0</v>
       </c>
       <c r="J9" t="n">
-        <v>29.0</v>
+        <v>29.5</v>
       </c>
       <c r="K9" t="n">
-        <v>22.666666666666668</v>
+        <v>25.75</v>
       </c>
       <c r="L9" t="n">
-        <v>17.333333333333332</v>
+        <v>20.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.2560975609756095</v>
+        <v>2.0283018867924527</v>
       </c>
     </row>
     <row r="10">
@@ -590,37 +590,37 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>165.0</v>
+        <v>185.0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.0</v>
+        <v>46.25</v>
       </c>
       <c r="F10" t="n">
         <v>2250.0</v>
       </c>
       <c r="G10" t="n">
-        <v>750.0</v>
+        <v>562.5</v>
       </c>
       <c r="H10" t="n">
         <v>2100.0</v>
       </c>
       <c r="I10" t="n">
-        <v>700.0</v>
+        <v>525.0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.333333333333332</v>
+        <v>15.25</v>
       </c>
       <c r="K10" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="L10" t="n">
-        <v>17.666666666666668</v>
+        <v>31.75</v>
       </c>
       <c r="M10" t="n">
-        <v>2.357142857142857</v>
+        <v>2.2289156626506026</v>
       </c>
     </row>
     <row r="11">
@@ -631,37 +631,37 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.0</v>
+        <v>37.5</v>
       </c>
       <c r="F11" t="n">
         <v>900.0</v>
       </c>
       <c r="G11" t="n">
-        <v>300.0</v>
+        <v>225.0</v>
       </c>
       <c r="H11" t="n">
         <v>1100.0</v>
       </c>
       <c r="I11" t="n">
-        <v>366.6666666666667</v>
+        <v>275.0</v>
       </c>
       <c r="J11" t="n">
-        <v>41.333333333333336</v>
+        <v>31.0</v>
       </c>
       <c r="K11" t="n">
-        <v>40.0</v>
+        <v>49.25</v>
       </c>
       <c r="L11" t="n">
-        <v>32.666666666666664</v>
+        <v>43.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.643835616438356</v>
+        <v>1.4423076923076923</v>
       </c>
     </row>
     <row r="12">
@@ -672,37 +672,37 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n">
-        <v>135.0</v>
+        <v>160.0</v>
       </c>
       <c r="E12" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1850.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G12" t="n">
-        <v>616.6666666666666</v>
+        <v>375.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2000.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I12" t="n">
-        <v>666.6666666666666</v>
+        <v>325.0</v>
       </c>
       <c r="J12" t="n">
-        <v>31.333333333333332</v>
+        <v>60.25</v>
       </c>
       <c r="K12" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.666666666666664</v>
+        <v>30.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.0454545454545454</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="13">
@@ -713,37 +713,37 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>225.0</v>
+        <v>165.0</v>
       </c>
       <c r="E13" t="n">
-        <v>75.0</v>
+        <v>41.25</v>
       </c>
       <c r="F13" t="n">
-        <v>3525.0</v>
+        <v>2050.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1175.0</v>
+        <v>512.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1500.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>500.0</v>
+        <v>550.0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.0</v>
+        <v>33.5</v>
       </c>
       <c r="K13" t="n">
-        <v>31.333333333333332</v>
+        <v>34.25</v>
       </c>
       <c r="L13" t="n">
-        <v>37.0</v>
+        <v>33.25</v>
       </c>
       <c r="M13" t="n">
-        <v>2.960526315789474</v>
+        <v>2.088607594936709</v>
       </c>
     </row>
     <row r="14">
@@ -754,37 +754,37 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>70.0</v>
+        <v>90.0</v>
       </c>
       <c r="E14" t="n">
-        <v>23.333333333333332</v>
+        <v>22.5</v>
       </c>
       <c r="F14" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="G14" t="n">
-        <v>200.0</v>
+        <v>175.0</v>
       </c>
       <c r="H14" t="n">
         <v>500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>166.66666666666666</v>
+        <v>125.0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.666666666666664</v>
+        <v>50.75</v>
       </c>
       <c r="K14" t="n">
-        <v>35.666666666666664</v>
+        <v>50.0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.0</v>
+        <v>44.25</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9183673469387755</v>
       </c>
     </row>
     <row r="15">
@@ -795,37 +795,37 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.0</v>
+        <v>175.0</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0</v>
+        <v>43.75</v>
       </c>
       <c r="F15" t="n">
-        <v>1400.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>466.6666666666667</v>
+        <v>525.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1400.0</v>
+        <v>1850.0</v>
       </c>
       <c r="I15" t="n">
-        <v>466.6666666666667</v>
+        <v>462.5</v>
       </c>
       <c r="J15" t="n">
-        <v>25.666666666666668</v>
+        <v>31.0</v>
       </c>
       <c r="K15" t="n">
-        <v>30.666666666666668</v>
+        <v>37.75</v>
       </c>
       <c r="L15" t="n">
-        <v>27.666666666666668</v>
+        <v>32.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9672131147540983</v>
+        <v>1.9662921348314606</v>
       </c>
     </row>
     <row r="16">
@@ -836,37 +836,37 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>225.0</v>
+        <v>305.0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.0</v>
+        <v>76.25</v>
       </c>
       <c r="F16" t="n">
-        <v>4300.0</v>
+        <v>5900.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1433.3333333333333</v>
+        <v>1475.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2600.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>866.6666666666666</v>
+        <v>1000.0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.333333333333332</v>
+        <v>18.0</v>
       </c>
       <c r="L16" t="n">
-        <v>17.333333333333332</v>
+        <v>16.25</v>
       </c>
       <c r="M16" t="n">
-        <v>3.75</v>
+        <v>3.388888888888889</v>
       </c>
     </row>
     <row r="17">
@@ -877,37 +877,37 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>70.0</v>
+        <v>165.0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
       <c r="F17" t="n">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G17" t="n">
-        <v>250.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I17" t="n">
-        <v>300.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>26.0</v>
+        <v>33.666666666666664</v>
       </c>
       <c r="K17" t="n">
-        <v>29.5</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="L17" t="n">
-        <v>22.5</v>
+        <v>20.0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.0588235294117645</v>
+        <v>2.7049180327868854</v>
       </c>
     </row>
     <row r="18">
@@ -918,37 +918,37 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
-        <v>70.0</v>
+        <v>155.0</v>
       </c>
       <c r="E18" t="n">
-        <v>35.0</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F18" t="n">
-        <v>700.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>350.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="J18" t="n">
-        <v>28.5</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K18" t="n">
-        <v>10.0</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="L18" t="n">
-        <v>10.0</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="M18" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.3484848484848486</v>
       </c>
     </row>
     <row r="19">
@@ -959,37 +959,37 @@
         <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>120.0</v>
+        <v>225.0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1825.0</v>
+        <v>3525.0</v>
       </c>
       <c r="G19" t="n">
-        <v>912.5</v>
+        <v>1175.0</v>
       </c>
       <c r="H19" t="n">
-        <v>200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I19" t="n">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
       <c r="J19" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="K19" t="n">
-        <v>15.5</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="L19" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.4489795918367347</v>
+        <v>2.960526315789474</v>
       </c>
     </row>
     <row r="20">
@@ -1000,37 +1000,37 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.0</v>
+        <v>140.0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F20" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G20" t="n">
+        <v>466.6666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>300.0</v>
       </c>
-      <c r="H20" t="n">
-        <v>500.0</v>
-      </c>
       <c r="I20" t="n">
-        <v>250.0</v>
+        <v>100.0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.5</v>
+        <v>44.0</v>
       </c>
       <c r="K20" t="n">
-        <v>21.5</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="L20" t="n">
-        <v>21.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M20" t="n">
-        <v>1.5909090909090908</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21">
@@ -1044,34 +1044,34 @@
         <v>2.0</v>
       </c>
       <c r="D21" t="n">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
       <c r="E21" t="n">
-        <v>52.5</v>
+        <v>60.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1400.0</v>
+        <v>1825.0</v>
       </c>
       <c r="G21" t="n">
-        <v>700.0</v>
+        <v>912.5</v>
       </c>
       <c r="H21" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I21" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="J21" t="n">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="K21" t="n">
-        <v>41.0</v>
+        <v>15.5</v>
       </c>
       <c r="L21" t="n">
-        <v>41.0</v>
+        <v>29.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.3333333333333335</v>
+        <v>2.4489795918367347</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -116,13 +116,22 @@
     <t>Willy Delajod</t>
   </si>
   <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
+    <t>Hakim Ben El Hadj Salem</t>
+  </si>
+  <si>
+    <t>Clément Turpin</t>
+  </si>
+  <si>
     <t>Gaël Angoula</t>
   </si>
   <si>
-    <t>Marc Bollengier</t>
-  </si>
-  <si>
-    <t>Hakim Ben El Hadj Salem</t>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
   </si>
   <si>
     <t>Abdelatif Kherradji</t>
@@ -131,9 +140,6 @@
     <t>Stéphanie Frappart</t>
   </si>
   <si>
-    <t>Clément Turpin</t>
-  </si>
-  <si>
     <t>Mathieu Vernice</t>
   </si>
   <si>
@@ -146,25 +152,19 @@
     <t>Bastien Dechepy</t>
   </si>
   <si>
-    <t>Thomas Léonard</t>
-  </si>
-  <si>
-    <t>Benoît Bastien</t>
-  </si>
-  <si>
     <t>Jérémie Pignard</t>
   </si>
   <si>
+    <t>Romain Lissorgue</t>
+  </si>
+  <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
+    <t>François Letexier</t>
+  </si>
+  <si>
     <t>Florent Batta</t>
-  </si>
-  <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
-  </si>
-  <si>
-    <t>Romain Lissorgue</t>
   </si>
 </sst>
 </file>
@@ -303,37 +303,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0</v>
+        <v>405.0</v>
       </c>
       <c r="E3" t="n">
-        <v>54.166666666666664</v>
+        <v>45.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5400.0</v>
+        <v>6100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>900.0</v>
+        <v>677.7777777777778</v>
       </c>
       <c r="H3" t="n">
-        <v>3800.0</v>
+        <v>4400.0</v>
       </c>
       <c r="I3" t="n">
-        <v>633.3333333333334</v>
+        <v>488.8888888888889</v>
       </c>
       <c r="J3" t="n">
-        <v>26.166666666666668</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>24.833333333333332</v>
+        <v>31.77777777777778</v>
       </c>
       <c r="L3" t="n">
-        <v>23.333333333333332</v>
+        <v>22.0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1241830065359477</v>
+        <v>1.9950738916256157</v>
       </c>
     </row>
     <row r="4">
@@ -344,37 +344,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>265.0</v>
+        <v>400.0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2450.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>490.0</v>
+        <v>512.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2450.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I4" t="n">
-        <v>490.0</v>
+        <v>381.25</v>
       </c>
       <c r="J4" t="n">
-        <v>37.2</v>
+        <v>49.75</v>
       </c>
       <c r="K4" t="n">
-        <v>44.8</v>
+        <v>40.125</v>
       </c>
       <c r="L4" t="n">
-        <v>26.0</v>
+        <v>39.125</v>
       </c>
       <c r="M4" t="n">
-        <v>2.2457627118644066</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="5">
@@ -385,37 +385,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.0</v>
+        <v>355.0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.0</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="F5" t="n">
-        <v>600.0</v>
+        <v>4050.0</v>
       </c>
       <c r="G5" t="n">
-        <v>120.0</v>
+        <v>578.5714285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>1450.0</v>
+        <v>2050.0</v>
       </c>
       <c r="I5" t="n">
-        <v>290.0</v>
+        <v>292.85714285714283</v>
       </c>
       <c r="J5" t="n">
-        <v>30.8</v>
+        <v>41.57142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>36.8</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="L5" t="n">
-        <v>25.6</v>
+        <v>37.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.2790697674418605</v>
+        <v>1.9943820224719102</v>
       </c>
     </row>
     <row r="6">
@@ -426,37 +426,37 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="E6" t="n">
-        <v>62.5</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F6" t="n">
-        <v>3450.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G6" t="n">
-        <v>862.5</v>
+        <v>457.14285714285717</v>
       </c>
       <c r="H6" t="n">
-        <v>1700.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>425.0</v>
+        <v>385.7142857142857</v>
       </c>
       <c r="J6" t="n">
-        <v>57.75</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="K6" t="n">
-        <v>26.25</v>
+        <v>44.42857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>26.25</v>
+        <v>21.0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.577319587628866</v>
+        <v>1.5544041450777202</v>
       </c>
     </row>
     <row r="7">
@@ -467,37 +467,37 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" t="n">
-        <v>210.0</v>
+        <v>245.0</v>
       </c>
       <c r="E7" t="n">
-        <v>52.5</v>
+        <v>35.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2500.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G7" t="n">
-        <v>625.0</v>
+        <v>350.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2000.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I7" t="n">
-        <v>500.0</v>
+        <v>328.57142857142856</v>
       </c>
       <c r="J7" t="n">
-        <v>31.75</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="K7" t="n">
-        <v>57.75</v>
+        <v>43.142857142857146</v>
       </c>
       <c r="L7" t="n">
-        <v>26.5</v>
+        <v>41.142857142857146</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9090909090909092</v>
+        <v>1.4939024390243902</v>
       </c>
     </row>
     <row r="8">
@@ -508,37 +508,37 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n">
-        <v>185.0</v>
+        <v>255.0</v>
       </c>
       <c r="E8" t="n">
-        <v>46.25</v>
+        <v>36.42857142857143</v>
       </c>
       <c r="F8" t="n">
-        <v>2200.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G8" t="n">
-        <v>550.0</v>
+        <v>242.85714285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>1100.0</v>
+        <v>2150.0</v>
       </c>
       <c r="I8" t="n">
-        <v>275.0</v>
+        <v>307.14285714285717</v>
       </c>
       <c r="J8" t="n">
-        <v>22.25</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="K8" t="n">
-        <v>49.25</v>
+        <v>39.0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.25</v>
+        <v>26.571428571428573</v>
       </c>
       <c r="M8" t="n">
-        <v>1.712962962962963</v>
+        <v>1.4325842696629214</v>
       </c>
     </row>
     <row r="9">
@@ -549,37 +549,37 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>215.0</v>
+        <v>315.0</v>
       </c>
       <c r="E9" t="n">
-        <v>53.75</v>
+        <v>45.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2600.0</v>
+        <v>3900.0</v>
       </c>
       <c r="G9" t="n">
-        <v>650.0</v>
+        <v>557.1428571428571</v>
       </c>
       <c r="H9" t="n">
-        <v>3100.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I9" t="n">
-        <v>775.0</v>
+        <v>478.57142857142856</v>
       </c>
       <c r="J9" t="n">
-        <v>29.5</v>
+        <v>36.714285714285715</v>
       </c>
       <c r="K9" t="n">
-        <v>25.75</v>
+        <v>29.428571428571427</v>
       </c>
       <c r="L9" t="n">
-        <v>20.75</v>
+        <v>26.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.0283018867924527</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="10">
@@ -590,37 +590,37 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>185.0</v>
+        <v>395.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.25</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>2250.0</v>
+        <v>6600.0</v>
       </c>
       <c r="G10" t="n">
-        <v>562.5</v>
+        <v>942.8571428571429</v>
       </c>
       <c r="H10" t="n">
-        <v>2100.0</v>
+        <v>4600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>525.0</v>
+        <v>657.1428571428571</v>
       </c>
       <c r="J10" t="n">
-        <v>15.25</v>
+        <v>41.857142857142854</v>
       </c>
       <c r="K10" t="n">
-        <v>44.0</v>
+        <v>17.0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.75</v>
+        <v>19.428571428571427</v>
       </c>
       <c r="M10" t="n">
-        <v>2.2289156626506026</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -631,37 +631,37 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>150.0</v>
+        <v>225.0</v>
       </c>
       <c r="E11" t="n">
         <v>37.5</v>
       </c>
       <c r="F11" t="n">
-        <v>900.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.0</v>
+        <v>400.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1100.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>275.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>21.833333333333332</v>
       </c>
       <c r="K11" t="n">
-        <v>49.25</v>
+        <v>51.166666666666664</v>
       </c>
       <c r="L11" t="n">
-        <v>43.75</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4423076923076923</v>
+        <v>1.480263157894737</v>
       </c>
     </row>
     <row r="12">
@@ -672,37 +672,37 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>160.0</v>
+        <v>275.0</v>
       </c>
       <c r="E12" t="n">
-        <v>40.0</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="F12" t="n">
-        <v>1500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G12" t="n">
-        <v>375.0</v>
+        <v>500.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1300.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I12" t="n">
-        <v>325.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>60.25</v>
+        <v>41.833333333333336</v>
       </c>
       <c r="K12" t="n">
-        <v>30.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="L12" t="n">
-        <v>30.0</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="M12" t="n">
-        <v>1.7391304347826086</v>
+        <v>1.7080745341614907</v>
       </c>
     </row>
     <row r="13">
@@ -713,37 +713,37 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>165.0</v>
+        <v>250.0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.25</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F13" t="n">
-        <v>2050.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G13" t="n">
-        <v>512.5</v>
+        <v>350.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2200.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I13" t="n">
-        <v>550.0</v>
+        <v>350.0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.5</v>
+        <v>40.5</v>
       </c>
       <c r="K13" t="n">
-        <v>34.25</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="L13" t="n">
-        <v>33.25</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="M13" t="n">
-        <v>2.088607594936709</v>
+        <v>1.5527950310559007</v>
       </c>
     </row>
     <row r="14">
@@ -754,37 +754,37 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>90.0</v>
+        <v>210.0</v>
       </c>
       <c r="E14" t="n">
-        <v>22.5</v>
+        <v>35.0</v>
       </c>
       <c r="F14" t="n">
-        <v>700.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>175.0</v>
+        <v>300.0</v>
       </c>
       <c r="H14" t="n">
-        <v>500.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I14" t="n">
-        <v>125.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>50.75</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>50.0</v>
+        <v>39.833333333333336</v>
       </c>
       <c r="L14" t="n">
-        <v>44.25</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9183673469387755</v>
+        <v>1.4893617021276595</v>
       </c>
     </row>
     <row r="15">
@@ -795,37 +795,37 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>175.0</v>
+        <v>270.0</v>
       </c>
       <c r="E15" t="n">
-        <v>43.75</v>
+        <v>45.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2100.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G15" t="n">
-        <v>525.0</v>
+        <v>550.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1850.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I15" t="n">
-        <v>462.5</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="J15" t="n">
-        <v>31.0</v>
+        <v>37.5</v>
       </c>
       <c r="K15" t="n">
-        <v>37.75</v>
+        <v>42.0</v>
       </c>
       <c r="L15" t="n">
-        <v>32.5</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9662921348314606</v>
+        <v>2.0930232558139537</v>
       </c>
     </row>
     <row r="16">
@@ -836,37 +836,37 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>305.0</v>
+        <v>190.0</v>
       </c>
       <c r="E16" t="n">
-        <v>76.25</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="F16" t="n">
-        <v>5900.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1475.0</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>4000.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1000.0</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>37.0</v>
+        <v>53.166666666666664</v>
       </c>
       <c r="K16" t="n">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
       <c r="L16" t="n">
-        <v>16.25</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="M16" t="n">
-        <v>3.388888888888889</v>
+        <v>1.2337662337662338</v>
       </c>
     </row>
     <row r="17">
@@ -877,37 +877,37 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>165.0</v>
+        <v>255.0</v>
       </c>
       <c r="E17" t="n">
-        <v>55.0</v>
+        <v>51.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2000.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G17" t="n">
-        <v>666.6666666666666</v>
+        <v>540.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I17" t="n">
-        <v>466.6666666666667</v>
+        <v>440.0</v>
       </c>
       <c r="J17" t="n">
-        <v>33.666666666666664</v>
+        <v>38.0</v>
       </c>
       <c r="K17" t="n">
-        <v>24.666666666666668</v>
+        <v>37.0</v>
       </c>
       <c r="L17" t="n">
-        <v>20.0</v>
+        <v>29.8</v>
       </c>
       <c r="M17" t="n">
-        <v>2.7049180327868854</v>
+        <v>2.383177570093458</v>
       </c>
     </row>
     <row r="18">
@@ -918,37 +918,37 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>155.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
-        <v>51.666666666666664</v>
+        <v>50.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2000.0</v>
+        <v>3025.0</v>
       </c>
       <c r="G18" t="n">
-        <v>666.6666666666666</v>
+        <v>605.0</v>
       </c>
       <c r="H18" t="n">
         <v>1200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>400.0</v>
+        <v>240.0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.666666666666668</v>
+        <v>48.0</v>
       </c>
       <c r="K18" t="n">
-        <v>18.333333333333332</v>
+        <v>32.0</v>
       </c>
       <c r="L18" t="n">
-        <v>17.333333333333332</v>
+        <v>33.2</v>
       </c>
       <c r="M18" t="n">
-        <v>2.3484848484848486</v>
+        <v>1.7730496453900708</v>
       </c>
     </row>
     <row r="19">
@@ -959,37 +959,37 @@
         <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>225.0</v>
+        <v>395.0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3525.0</v>
+        <v>8400.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1175.0</v>
+        <v>1680.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.0</v>
+        <v>25.8</v>
       </c>
       <c r="K19" t="n">
-        <v>31.333333333333332</v>
+        <v>28.8</v>
       </c>
       <c r="L19" t="n">
-        <v>37.0</v>
+        <v>28.8</v>
       </c>
       <c r="M19" t="n">
-        <v>2.960526315789474</v>
+        <v>3.1102362204724407</v>
       </c>
     </row>
     <row r="20">
@@ -1000,34 +1000,34 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>140.0</v>
+        <v>240.0</v>
       </c>
       <c r="E20" t="n">
-        <v>46.666666666666664</v>
+        <v>48.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1400.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G20" t="n">
-        <v>466.6666666666667</v>
+        <v>480.0</v>
       </c>
       <c r="H20" t="n">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="I20" t="n">
-        <v>100.0</v>
+        <v>180.0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.0</v>
+        <v>44.4</v>
       </c>
       <c r="K20" t="n">
-        <v>27.333333333333332</v>
+        <v>39.4</v>
       </c>
       <c r="L20" t="n">
-        <v>33.333333333333336</v>
+        <v>38.0</v>
       </c>
       <c r="M20" t="n">
         <v>2.5</v>
@@ -1041,37 +1041,37 @@
         <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.0</v>
+        <v>235.0</v>
       </c>
       <c r="E21" t="n">
-        <v>60.0</v>
+        <v>58.75</v>
       </c>
       <c r="F21" t="n">
-        <v>1825.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G21" t="n">
-        <v>912.5</v>
+        <v>875.0</v>
       </c>
       <c r="H21" t="n">
-        <v>200.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I21" t="n">
-        <v>100.0</v>
+        <v>675.0</v>
       </c>
       <c r="J21" t="n">
-        <v>44.0</v>
+        <v>36.5</v>
       </c>
       <c r="K21" t="n">
-        <v>15.5</v>
+        <v>20.75</v>
       </c>
       <c r="L21" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.4489795918367347</v>
+        <v>2.4479166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -113,58 +113,58 @@
     <t>Jeremy Stinat</t>
   </si>
   <si>
+    <t>Hakim Ben El Hadj Salem</t>
+  </si>
+  <si>
     <t>Willy Delajod</t>
   </si>
   <si>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
     <t>Marc Bollengier</t>
   </si>
   <si>
-    <t>Hakim Ben El Hadj Salem</t>
+    <t>Stéphanie Frappart</t>
   </si>
   <si>
     <t>Clément Turpin</t>
   </si>
   <si>
+    <t>Jérôme Brisard</t>
+  </si>
+  <si>
     <t>Gaël Angoula</t>
   </si>
   <si>
-    <t>Thomas Léonard</t>
-  </si>
-  <si>
     <t>Benoît Bastien</t>
   </si>
   <si>
     <t>Abdelatif Kherradji</t>
   </si>
   <si>
-    <t>Stéphanie Frappart</t>
+    <t>Jérémie Pignard</t>
   </si>
   <si>
     <t>Mathieu Vernice</t>
   </si>
   <si>
-    <t>Jérôme Brisard</t>
-  </si>
-  <si>
     <t>Eric Wattellier</t>
   </si>
   <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
     <t>Bastien Dechepy</t>
   </si>
   <si>
-    <t>Jérémie Pignard</t>
+    <t>François Letexier</t>
+  </si>
+  <si>
+    <t>Florent Batta</t>
   </si>
   <si>
     <t>Romain Lissorgue</t>
-  </si>
-  <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
-  </si>
-  <si>
-    <t>Florent Batta</t>
   </si>
 </sst>
 </file>
@@ -303,37 +303,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" t="n">
-        <v>405.0</v>
+        <v>435.0</v>
       </c>
       <c r="E3" t="n">
-        <v>45.0</v>
+        <v>43.5</v>
       </c>
       <c r="F3" t="n">
-        <v>6100.0</v>
+        <v>6300.0</v>
       </c>
       <c r="G3" t="n">
-        <v>677.7777777777778</v>
+        <v>630.0</v>
       </c>
       <c r="H3" t="n">
         <v>4400.0</v>
       </c>
       <c r="I3" t="n">
-        <v>488.8888888888889</v>
+        <v>440.0</v>
       </c>
       <c r="J3" t="n">
-        <v>23.88888888888889</v>
+        <v>28.1</v>
       </c>
       <c r="K3" t="n">
-        <v>31.77777777777778</v>
+        <v>33.6</v>
       </c>
       <c r="L3" t="n">
-        <v>22.0</v>
+        <v>24.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9950738916256157</v>
+        <v>1.9683257918552035</v>
       </c>
     </row>
     <row r="4">
@@ -347,34 +347,34 @@
         <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>400.0</v>
+        <v>395.0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>49.375</v>
       </c>
       <c r="F4" t="n">
-        <v>4100.0</v>
+        <v>4700.0</v>
       </c>
       <c r="G4" t="n">
-        <v>512.5</v>
+        <v>587.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3050.0</v>
+        <v>4650.0</v>
       </c>
       <c r="I4" t="n">
-        <v>381.25</v>
+        <v>581.25</v>
       </c>
       <c r="J4" t="n">
-        <v>49.75</v>
+        <v>27.5</v>
       </c>
       <c r="K4" t="n">
         <v>40.125</v>
       </c>
       <c r="L4" t="n">
-        <v>39.125</v>
+        <v>19.375</v>
       </c>
       <c r="M4" t="n">
-        <v>2.185792349726776</v>
+        <v>1.7555555555555555</v>
       </c>
     </row>
     <row r="5">
@@ -385,37 +385,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>355.0</v>
+        <v>400.0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.714285714285715</v>
+        <v>50.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4050.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G5" t="n">
-        <v>578.5714285714286</v>
+        <v>512.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2050.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I5" t="n">
-        <v>292.85714285714283</v>
+        <v>381.25</v>
       </c>
       <c r="J5" t="n">
-        <v>41.57142857142857</v>
+        <v>49.75</v>
       </c>
       <c r="K5" t="n">
-        <v>37.857142857142854</v>
+        <v>40.125</v>
       </c>
       <c r="L5" t="n">
-        <v>37.0</v>
+        <v>39.125</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9943820224719102</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="6">
@@ -426,37 +426,37 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>300.0</v>
+        <v>325.0</v>
       </c>
       <c r="E6" t="n">
-        <v>42.857142857142854</v>
+        <v>40.625</v>
       </c>
       <c r="F6" t="n">
-        <v>3200.0</v>
+        <v>3900.0</v>
       </c>
       <c r="G6" t="n">
-        <v>457.14285714285717</v>
+        <v>487.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2700.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I6" t="n">
-        <v>385.7142857142857</v>
+        <v>418.75</v>
       </c>
       <c r="J6" t="n">
-        <v>30.285714285714285</v>
+        <v>38.375</v>
       </c>
       <c r="K6" t="n">
-        <v>44.42857142857143</v>
+        <v>25.75</v>
       </c>
       <c r="L6" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5544041450777202</v>
+        <v>1.7473118279569892</v>
       </c>
     </row>
     <row r="7">
@@ -470,34 +470,34 @@
         <v>7.0</v>
       </c>
       <c r="D7" t="n">
-        <v>245.0</v>
+        <v>355.0</v>
       </c>
       <c r="E7" t="n">
-        <v>35.0</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="F7" t="n">
-        <v>2450.0</v>
+        <v>4050.0</v>
       </c>
       <c r="G7" t="n">
-        <v>350.0</v>
+        <v>578.5714285714286</v>
       </c>
       <c r="H7" t="n">
-        <v>2300.0</v>
+        <v>2050.0</v>
       </c>
       <c r="I7" t="n">
-        <v>328.57142857142856</v>
+        <v>292.85714285714283</v>
       </c>
       <c r="J7" t="n">
-        <v>27.142857142857142</v>
+        <v>41.57142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>43.142857142857146</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="L7" t="n">
-        <v>41.142857142857146</v>
+        <v>37.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4939024390243902</v>
+        <v>1.9943820224719102</v>
       </c>
     </row>
     <row r="8">
@@ -511,34 +511,34 @@
         <v>7.0</v>
       </c>
       <c r="D8" t="n">
-        <v>255.0</v>
+        <v>305.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.42857142857143</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="F8" t="n">
-        <v>1700.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G8" t="n">
-        <v>242.85714285714286</v>
+        <v>457.14285714285717</v>
       </c>
       <c r="H8" t="n">
-        <v>2150.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I8" t="n">
-        <v>307.14285714285717</v>
+        <v>485.7142857142857</v>
       </c>
       <c r="J8" t="n">
-        <v>30.428571428571427</v>
+        <v>46.285714285714285</v>
       </c>
       <c r="K8" t="n">
-        <v>39.0</v>
+        <v>29.428571428571427</v>
       </c>
       <c r="L8" t="n">
-        <v>26.571428571428573</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="M8" t="n">
-        <v>1.4325842696629214</v>
+        <v>1.605263157894737</v>
       </c>
     </row>
     <row r="9">
@@ -552,34 +552,34 @@
         <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>315.0</v>
+        <v>245.0</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3900.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G9" t="n">
-        <v>557.1428571428571</v>
+        <v>350.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3350.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I9" t="n">
-        <v>478.57142857142856</v>
+        <v>328.57142857142856</v>
       </c>
       <c r="J9" t="n">
-        <v>36.714285714285715</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="K9" t="n">
-        <v>29.428571428571427</v>
+        <v>43.142857142857146</v>
       </c>
       <c r="L9" t="n">
-        <v>26.0</v>
+        <v>41.142857142857146</v>
       </c>
       <c r="M9" t="n">
-        <v>1.875</v>
+        <v>1.4939024390243902</v>
       </c>
     </row>
     <row r="10">
@@ -593,34 +593,34 @@
         <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>395.0</v>
+        <v>295.0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.42857142857143</v>
+        <v>42.142857142857146</v>
       </c>
       <c r="F10" t="n">
-        <v>6600.0</v>
+        <v>3450.0</v>
       </c>
       <c r="G10" t="n">
-        <v>942.8571428571429</v>
+        <v>492.85714285714283</v>
       </c>
       <c r="H10" t="n">
-        <v>4600.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>657.1428571428571</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="J10" t="n">
-        <v>41.857142857142854</v>
+        <v>57.714285714285715</v>
       </c>
       <c r="K10" t="n">
-        <v>17.0</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="L10" t="n">
-        <v>19.428571428571427</v>
+        <v>33.0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>1.7771084337349397</v>
       </c>
     </row>
     <row r="11">
@@ -631,37 +631,37 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
-        <v>225.0</v>
+        <v>255.0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.5</v>
+        <v>36.42857142857143</v>
       </c>
       <c r="F11" t="n">
-        <v>2400.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0</v>
+        <v>242.85714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>1300.0</v>
+        <v>2150.0</v>
       </c>
       <c r="I11" t="n">
-        <v>216.66666666666666</v>
+        <v>307.14285714285717</v>
       </c>
       <c r="J11" t="n">
-        <v>21.833333333333332</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="K11" t="n">
-        <v>51.166666666666664</v>
+        <v>39.0</v>
       </c>
       <c r="L11" t="n">
-        <v>33.166666666666664</v>
+        <v>26.571428571428573</v>
       </c>
       <c r="M11" t="n">
-        <v>1.480263157894737</v>
+        <v>1.4325842696629214</v>
       </c>
     </row>
     <row r="12">
@@ -672,37 +672,37 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>275.0</v>
+        <v>395.0</v>
       </c>
       <c r="E12" t="n">
-        <v>45.833333333333336</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>3000.0</v>
+        <v>6600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>500.0</v>
+        <v>942.8571428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>3400.0</v>
+        <v>4600.0</v>
       </c>
       <c r="I12" t="n">
-        <v>566.6666666666666</v>
+        <v>657.1428571428571</v>
       </c>
       <c r="J12" t="n">
-        <v>41.833333333333336</v>
+        <v>41.857142857142854</v>
       </c>
       <c r="K12" t="n">
-        <v>23.333333333333332</v>
+        <v>17.0</v>
       </c>
       <c r="L12" t="n">
-        <v>30.666666666666668</v>
+        <v>19.428571428571427</v>
       </c>
       <c r="M12" t="n">
-        <v>1.7080745341614907</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -716,34 +716,34 @@
         <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.666666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G13" t="n">
-        <v>350.0</v>
+        <v>400.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2100.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I13" t="n">
-        <v>350.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="J13" t="n">
-        <v>40.5</v>
+        <v>21.833333333333332</v>
       </c>
       <c r="K13" t="n">
-        <v>43.833333333333336</v>
+        <v>51.166666666666664</v>
       </c>
       <c r="L13" t="n">
-        <v>40.166666666666664</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="M13" t="n">
-        <v>1.5527950310559007</v>
+        <v>1.480263157894737</v>
       </c>
     </row>
     <row r="14">
@@ -757,34 +757,34 @@
         <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>210.0</v>
+        <v>285.0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.0</v>
+        <v>47.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1800.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G14" t="n">
-        <v>300.0</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1300.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>216.66666666666666</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>65.66666666666667</v>
+        <v>44.5</v>
       </c>
       <c r="K14" t="n">
-        <v>39.833333333333336</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="L14" t="n">
         <v>36.833333333333336</v>
       </c>
       <c r="M14" t="n">
-        <v>1.4893617021276595</v>
+        <v>2.317073170731707</v>
       </c>
     </row>
     <row r="15">
@@ -798,34 +798,34 @@
         <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" t="n">
-        <v>45.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F15" t="n">
-        <v>3300.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>550.0</v>
+        <v>350.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3500.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I15" t="n">
-        <v>583.3333333333334</v>
+        <v>350.0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="K15" t="n">
-        <v>42.0</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="L15" t="n">
-        <v>34.333333333333336</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="M15" t="n">
-        <v>2.0930232558139537</v>
+        <v>1.5527950310559007</v>
       </c>
     </row>
     <row r="16">
@@ -839,34 +839,34 @@
         <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>190.0</v>
+        <v>270.0</v>
       </c>
       <c r="E16" t="n">
-        <v>31.666666666666668</v>
+        <v>45.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1900.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>316.6666666666667</v>
+        <v>550.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1700.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I16" t="n">
-        <v>283.3333333333333</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="J16" t="n">
-        <v>53.166666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="K16" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="L16" t="n">
-        <v>42.166666666666664</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="M16" t="n">
-        <v>1.2337662337662338</v>
+        <v>2.0930232558139537</v>
       </c>
     </row>
     <row r="17">
@@ -877,37 +877,37 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>255.0</v>
+        <v>425.0</v>
       </c>
       <c r="E17" t="n">
-        <v>51.0</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>2700.0</v>
+        <v>8600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>540.0</v>
+        <v>1433.3333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>2200.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I17" t="n">
-        <v>440.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="J17" t="n">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
       <c r="K17" t="n">
-        <v>37.0</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="L17" t="n">
-        <v>29.8</v>
+        <v>25.5</v>
       </c>
       <c r="M17" t="n">
-        <v>2.383177570093458</v>
+        <v>2.7960526315789473</v>
       </c>
     </row>
     <row r="18">
@@ -918,37 +918,37 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>190.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50.0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="F18" t="n">
-        <v>3025.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G18" t="n">
-        <v>605.0</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1200.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I18" t="n">
-        <v>240.0</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>48.0</v>
+        <v>53.166666666666664</v>
       </c>
       <c r="K18" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="L18" t="n">
-        <v>33.2</v>
+        <v>42.166666666666664</v>
       </c>
       <c r="M18" t="n">
-        <v>1.7730496453900708</v>
+        <v>1.2337662337662338</v>
       </c>
     </row>
     <row r="19">
@@ -959,37 +959,37 @@
         <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19" t="n">
-        <v>395.0</v>
+        <v>260.0</v>
       </c>
       <c r="E19" t="n">
-        <v>79.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F19" t="n">
-        <v>8400.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1680.0</v>
+        <v>400.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5000.0</v>
+        <v>900.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1000.0</v>
+        <v>150.0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.8</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="K19" t="n">
-        <v>28.8</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="L19" t="n">
-        <v>28.8</v>
+        <v>33.833333333333336</v>
       </c>
       <c r="M19" t="n">
-        <v>3.1102362204724407</v>
+        <v>2.2033898305084745</v>
       </c>
     </row>
     <row r="20">
@@ -1003,34 +1003,34 @@
         <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>240.0</v>
+        <v>265.0</v>
       </c>
       <c r="E20" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="F20" t="n">
-        <v>2400.0</v>
+        <v>3700.0</v>
       </c>
       <c r="G20" t="n">
-        <v>480.0</v>
+        <v>740.0</v>
       </c>
       <c r="H20" t="n">
-        <v>900.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I20" t="n">
-        <v>180.0</v>
+        <v>580.0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.4</v>
+        <v>38.4</v>
       </c>
       <c r="K20" t="n">
-        <v>39.4</v>
+        <v>26.2</v>
       </c>
       <c r="L20" t="n">
-        <v>38.0</v>
+        <v>25.2</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.226890756302521</v>
       </c>
     </row>
     <row r="21">
@@ -1041,37 +1041,37 @@
         <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21" t="n">
-        <v>235.0</v>
+        <v>250.0</v>
       </c>
       <c r="E21" t="n">
-        <v>58.75</v>
+        <v>50.0</v>
       </c>
       <c r="F21" t="n">
-        <v>3500.0</v>
+        <v>3025.0</v>
       </c>
       <c r="G21" t="n">
-        <v>875.0</v>
+        <v>605.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2700.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I21" t="n">
-        <v>675.0</v>
+        <v>240.0</v>
       </c>
       <c r="J21" t="n">
-        <v>36.5</v>
+        <v>48.0</v>
       </c>
       <c r="K21" t="n">
-        <v>20.75</v>
+        <v>32.0</v>
       </c>
       <c r="L21" t="n">
-        <v>20.0</v>
+        <v>33.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2.4479166666666665</v>
+        <v>1.7730496453900708</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_refereestats.xlsx
+++ b/LIGUEONE_refereestats.xlsx
@@ -113,58 +113,58 @@
     <t>Jeremy Stinat</t>
   </si>
   <si>
+    <t>Willy Delajod</t>
+  </si>
+  <si>
+    <t>Jérôme Brisard</t>
+  </si>
+  <si>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
+    <t>Stéphanie Frappart</t>
+  </si>
+  <si>
+    <t>Clément Turpin</t>
+  </si>
+  <si>
+    <t>Eric Wattellier</t>
+  </si>
+  <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
+  </si>
+  <si>
     <t>Hakim Ben El Hadj Salem</t>
   </si>
   <si>
-    <t>Willy Delajod</t>
-  </si>
-  <si>
-    <t>Thomas Léonard</t>
-  </si>
-  <si>
-    <t>Marc Bollengier</t>
-  </si>
-  <si>
-    <t>Stéphanie Frappart</t>
-  </si>
-  <si>
-    <t>Clément Turpin</t>
-  </si>
-  <si>
-    <t>Jérôme Brisard</t>
+    <t>Abdelatif Kherradji</t>
+  </si>
+  <si>
+    <t>Jérémie Pignard</t>
+  </si>
+  <si>
+    <t>Bastien Dechepy</t>
+  </si>
+  <si>
+    <t>François Letexier</t>
+  </si>
+  <si>
+    <t>Romain Lissorgue</t>
+  </si>
+  <si>
+    <t>Mathieu Vernice</t>
+  </si>
+  <si>
+    <t>Florent Batta</t>
   </si>
   <si>
     <t>Gaël Angoula</t>
-  </si>
-  <si>
-    <t>Benoît Bastien</t>
-  </si>
-  <si>
-    <t>Abdelatif Kherradji</t>
-  </si>
-  <si>
-    <t>Jérémie Pignard</t>
-  </si>
-  <si>
-    <t>Mathieu Vernice</t>
-  </si>
-  <si>
-    <t>Eric Wattellier</t>
-  </si>
-  <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>Bastien Dechepy</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
-  </si>
-  <si>
-    <t>Florent Batta</t>
-  </si>
-  <si>
-    <t>Romain Lissorgue</t>
   </si>
 </sst>
 </file>
@@ -303,37 +303,37 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="D3" t="n">
-        <v>435.0</v>
+        <v>670.0</v>
       </c>
       <c r="E3" t="n">
-        <v>43.5</v>
+        <v>47.857142857142854</v>
       </c>
       <c r="F3" t="n">
-        <v>6300.0</v>
+        <v>9050.0</v>
       </c>
       <c r="G3" t="n">
-        <v>630.0</v>
+        <v>646.4285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>4400.0</v>
+        <v>5800.0</v>
       </c>
       <c r="I3" t="n">
-        <v>440.0</v>
+        <v>414.2857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>28.1</v>
+        <v>37.642857142857146</v>
       </c>
       <c r="K3" t="n">
-        <v>33.6</v>
+        <v>36.285714285714285</v>
       </c>
       <c r="L3" t="n">
-        <v>24.8</v>
+        <v>29.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9683257918552035</v>
+        <v>2.1135646687697163</v>
       </c>
     </row>
     <row r="4">
@@ -344,37 +344,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>395.0</v>
+        <v>560.0</v>
       </c>
       <c r="E4" t="n">
-        <v>49.375</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F4" t="n">
-        <v>4700.0</v>
+        <v>5800.0</v>
       </c>
       <c r="G4" t="n">
-        <v>587.5</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>4650.0</v>
+        <v>4850.0</v>
       </c>
       <c r="I4" t="n">
-        <v>581.25</v>
+        <v>404.1666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>27.5</v>
+        <v>47.416666666666664</v>
       </c>
       <c r="K4" t="n">
-        <v>40.125</v>
+        <v>36.75</v>
       </c>
       <c r="L4" t="n">
-        <v>19.375</v>
+        <v>38.166666666666664</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7555555555555555</v>
+        <v>2.08955223880597</v>
       </c>
     </row>
     <row r="5">
@@ -385,37 +385,37 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.0</v>
+        <v>510.0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.0</v>
+        <v>42.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4100.0</v>
+        <v>5650.0</v>
       </c>
       <c r="G5" t="n">
-        <v>512.5</v>
+        <v>470.8333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>3050.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I5" t="n">
-        <v>381.25</v>
+        <v>375.0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.75</v>
+        <v>55.333333333333336</v>
       </c>
       <c r="K5" t="n">
-        <v>40.125</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="L5" t="n">
-        <v>39.125</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="M5" t="n">
-        <v>2.185792349726776</v>
+        <v>1.8411552346570397</v>
       </c>
     </row>
     <row r="6">
@@ -426,37 +426,37 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0</v>
+        <v>490.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.625</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="F6" t="n">
-        <v>3900.0</v>
+        <v>5450.0</v>
       </c>
       <c r="G6" t="n">
-        <v>487.5</v>
+        <v>454.1666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>3350.0</v>
+        <v>4300.0</v>
       </c>
       <c r="I6" t="n">
-        <v>418.75</v>
+        <v>358.3333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>38.375</v>
+        <v>47.5</v>
       </c>
       <c r="K6" t="n">
-        <v>25.75</v>
+        <v>35.416666666666664</v>
       </c>
       <c r="L6" t="n">
-        <v>29.0</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7473118279569892</v>
+        <v>1.627906976744186</v>
       </c>
     </row>
     <row r="7">
@@ -467,37 +467,37 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
-        <v>355.0</v>
+        <v>525.0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.714285714285715</v>
+        <v>47.72727272727273</v>
       </c>
       <c r="F7" t="n">
-        <v>4050.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G7" t="n">
-        <v>578.5714285714286</v>
+        <v>459.09090909090907</v>
       </c>
       <c r="H7" t="n">
-        <v>2050.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I7" t="n">
-        <v>292.85714285714283</v>
+        <v>254.54545454545453</v>
       </c>
       <c r="J7" t="n">
-        <v>41.57142857142857</v>
+        <v>43.54545454545455</v>
       </c>
       <c r="K7" t="n">
-        <v>37.857142857142854</v>
+        <v>37.09090909090909</v>
       </c>
       <c r="L7" t="n">
-        <v>37.0</v>
+        <v>40.63636363636363</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9943820224719102</v>
+        <v>1.8421052631578947</v>
       </c>
     </row>
     <row r="8">
@@ -508,37 +508,37 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>305.0</v>
+        <v>515.0</v>
       </c>
       <c r="E8" t="n">
-        <v>43.57142857142857</v>
+        <v>46.81818181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>3200.0</v>
+        <v>5900.0</v>
       </c>
       <c r="G8" t="n">
-        <v>457.14285714285717</v>
+        <v>536.3636363636364</v>
       </c>
       <c r="H8" t="n">
-        <v>3400.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>485.7142857142857</v>
+        <v>454.54545454545456</v>
       </c>
       <c r="J8" t="n">
-        <v>46.285714285714285</v>
+        <v>39.54545454545455</v>
       </c>
       <c r="K8" t="n">
-        <v>29.428571428571427</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="L8" t="n">
-        <v>35.714285714285715</v>
+        <v>31.818181818181817</v>
       </c>
       <c r="M8" t="n">
-        <v>1.605263157894737</v>
+        <v>1.7636986301369864</v>
       </c>
     </row>
     <row r="9">
@@ -549,37 +549,37 @@
         <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>245.0</v>
+        <v>365.0</v>
       </c>
       <c r="E9" t="n">
-        <v>35.0</v>
+        <v>33.18181818181818</v>
       </c>
       <c r="F9" t="n">
-        <v>2450.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G9" t="n">
-        <v>350.0</v>
+        <v>304.54545454545456</v>
       </c>
       <c r="H9" t="n">
-        <v>2300.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>328.57142857142856</v>
+        <v>290.90909090909093</v>
       </c>
       <c r="J9" t="n">
-        <v>27.142857142857142</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="K9" t="n">
-        <v>43.142857142857146</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="L9" t="n">
-        <v>41.142857142857146</v>
+        <v>34.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.4939024390243902</v>
+        <v>1.4202334630350195</v>
       </c>
     </row>
     <row r="10">
@@ -590,37 +590,37 @@
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
-        <v>295.0</v>
+        <v>385.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.142857142857146</v>
+        <v>35.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3450.0</v>
+        <v>4050.0</v>
       </c>
       <c r="G10" t="n">
-        <v>492.85714285714283</v>
+        <v>368.1818181818182</v>
       </c>
       <c r="H10" t="n">
-        <v>2600.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>371.42857142857144</v>
+        <v>327.27272727272725</v>
       </c>
       <c r="J10" t="n">
-        <v>57.714285714285715</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="K10" t="n">
-        <v>38.57142857142857</v>
+        <v>44.0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.0</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="M10" t="n">
-        <v>1.7771084337349397</v>
+        <v>1.696035242290749</v>
       </c>
     </row>
     <row r="11">
@@ -631,37 +631,37 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.0</v>
+        <v>665.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.42857142857143</v>
+        <v>60.45454545454545</v>
       </c>
       <c r="F11" t="n">
-        <v>1700.0</v>
+        <v>11950.0</v>
       </c>
       <c r="G11" t="n">
-        <v>242.85714285714286</v>
+        <v>1086.3636363636363</v>
       </c>
       <c r="H11" t="n">
-        <v>2150.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>307.14285714285717</v>
+        <v>509.09090909090907</v>
       </c>
       <c r="J11" t="n">
-        <v>30.428571428571427</v>
+        <v>34.0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.0</v>
+        <v>41.63636363636363</v>
       </c>
       <c r="L11" t="n">
-        <v>26.571428571428573</v>
+        <v>34.18181818181818</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4325842696629214</v>
+        <v>2.427007299270073</v>
       </c>
     </row>
     <row r="12">
@@ -672,37 +672,37 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D12" t="n">
-        <v>395.0</v>
+        <v>555.0</v>
       </c>
       <c r="E12" t="n">
-        <v>56.42857142857143</v>
+        <v>50.45454545454545</v>
       </c>
       <c r="F12" t="n">
-        <v>6600.0</v>
+        <v>8100.0</v>
       </c>
       <c r="G12" t="n">
-        <v>942.8571428571429</v>
+        <v>736.3636363636364</v>
       </c>
       <c r="H12" t="n">
-        <v>4600.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>657.1428571428571</v>
+        <v>545.4545454545455</v>
       </c>
       <c r="J12" t="n">
-        <v>41.857142857142854</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="K12" t="n">
-        <v>17.0</v>
+        <v>21.727272727272727</v>
       </c>
       <c r="L12" t="n">
-        <v>19.428571428571427</v>
+        <v>21.727272727272727</v>
       </c>
       <c r="M12" t="n">
-        <v>2.5</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -713,37 +713,37 @@
         <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>225.0</v>
+        <v>465.0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.5</v>
+        <v>46.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2400.0</v>
+        <v>5300.0</v>
       </c>
       <c r="G13" t="n">
-        <v>400.0</v>
+        <v>530.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1300.0</v>
+        <v>5250.0</v>
       </c>
       <c r="I13" t="n">
-        <v>216.66666666666666</v>
+        <v>525.0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.833333333333332</v>
+        <v>30.3</v>
       </c>
       <c r="K13" t="n">
-        <v>51.166666666666664</v>
+        <v>34.1</v>
       </c>
       <c r="L13" t="n">
-        <v>33.166666666666664</v>
+        <v>17.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.480263157894737</v>
+        <v>1.728624535315985</v>
       </c>
     </row>
     <row r="14">
@@ -754,37 +754,37 @@
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>285.0</v>
+        <v>345.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.5</v>
+        <v>34.5</v>
       </c>
       <c r="F14" t="n">
-        <v>2900.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G14" t="n">
-        <v>483.3333333333333</v>
+        <v>340.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2200.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I14" t="n">
-        <v>366.6666666666667</v>
+        <v>180.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.5</v>
+        <v>39.1</v>
       </c>
       <c r="K14" t="n">
-        <v>42.833333333333336</v>
+        <v>49.2</v>
       </c>
       <c r="L14" t="n">
-        <v>36.833333333333336</v>
+        <v>35.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.317073170731707</v>
+        <v>1.3424124513618676</v>
       </c>
     </row>
     <row r="15">
@@ -795,37 +795,37 @@
         <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>250.0</v>
+        <v>525.0</v>
       </c>
       <c r="E15" t="n">
-        <v>41.666666666666664</v>
+        <v>52.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2100.0</v>
+        <v>7225.0</v>
       </c>
       <c r="G15" t="n">
-        <v>350.0</v>
+        <v>722.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2100.0</v>
+        <v>5800.0</v>
       </c>
       <c r="I15" t="n">
-        <v>350.0</v>
+        <v>580.0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.5</v>
+        <v>43.6</v>
       </c>
       <c r="K15" t="n">
-        <v>43.833333333333336</v>
+        <v>34.6</v>
       </c>
       <c r="L15" t="n">
-        <v>40.166666666666664</v>
+        <v>31.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.5527950310559007</v>
+        <v>2.3755656108597285</v>
       </c>
     </row>
     <row r="16">
@@ -836,37 +836,37 @@
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D16" t="n">
-        <v>270.0</v>
+        <v>390.0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3300.0</v>
+        <v>4400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>550.0</v>
+        <v>440.0</v>
       </c>
       <c r="H16" t="n">
-        <v>3500.0</v>
+        <v>4400.0</v>
       </c>
       <c r="I16" t="n">
-        <v>583.3333333333334</v>
+        <v>440.0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.5</v>
+        <v>43.8</v>
       </c>
       <c r="K16" t="n">
-        <v>42.0</v>
+        <v>38.3</v>
       </c>
       <c r="L16" t="n">
-        <v>34.333333333333336</v>
+        <v>32.7</v>
       </c>
       <c r="M16" t="n">
-        <v>2.0930232558139537</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -877,37 +877,37 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D17" t="n">
-        <v>425.0</v>
+        <v>355.0</v>
       </c>
       <c r="E17" t="n">
-        <v>70.83333333333333</v>
+        <v>35.5</v>
       </c>
       <c r="F17" t="n">
-        <v>8600.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1433.3333333333333</v>
+        <v>320.0</v>
       </c>
       <c r="H17" t="n">
-        <v>5000.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I17" t="n">
-        <v>833.3333333333334</v>
+        <v>230.0</v>
       </c>
       <c r="J17" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="K17" t="n">
-        <v>29.166666666666668</v>
+        <v>36.2</v>
       </c>
       <c r="L17" t="n">
-        <v>25.5</v>
+        <v>36.0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.7960526315789473</v>
+        <v>1.7233009708737863</v>
       </c>
     </row>
     <row r="18">
@@ -918,37 +918,37 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D18" t="n">
-        <v>190.0</v>
+        <v>560.0</v>
       </c>
       <c r="E18" t="n">
-        <v>31.666666666666668</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F18" t="n">
-        <v>1900.0</v>
+        <v>6925.0</v>
       </c>
       <c r="G18" t="n">
-        <v>316.6666666666667</v>
+        <v>769.4444444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>1700.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I18" t="n">
-        <v>283.3333333333333</v>
+        <v>455.55555555555554</v>
       </c>
       <c r="J18" t="n">
-        <v>53.166666666666664</v>
+        <v>36.55555555555556</v>
       </c>
       <c r="K18" t="n">
-        <v>46.0</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L18" t="n">
-        <v>42.166666666666664</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M18" t="n">
-        <v>1.2337662337662338</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="19">
@@ -959,37 +959,37 @@
         <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0</v>
+        <v>415.0</v>
       </c>
       <c r="E19" t="n">
-        <v>43.333333333333336</v>
+        <v>46.111111111111114</v>
       </c>
       <c r="F19" t="n">
-        <v>2400.0</v>
+        <v>3550.0</v>
       </c>
       <c r="G19" t="n">
-        <v>400.0</v>
+        <v>394.44444444444446</v>
       </c>
       <c r="H19" t="n">
-        <v>900.0</v>
+        <v>3950.0</v>
       </c>
       <c r="I19" t="n">
-        <v>150.0</v>
+        <v>438.8888888888889</v>
       </c>
       <c r="J19" t="n">
-        <v>39.166666666666664</v>
+        <v>46.111111111111114</v>
       </c>
       <c r="K19" t="n">
-        <v>32.833333333333336</v>
+        <v>34.22222222222222</v>
       </c>
       <c r="L19" t="n">
-        <v>33.833333333333336</v>
+        <v>31.77777777777778</v>
       </c>
       <c r="M19" t="n">
-        <v>2.2033898305084745</v>
+        <v>1.912442396313364</v>
       </c>
     </row>
     <row r="20">
@@ -1000,37 +1000,37 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>265.0</v>
+        <v>355.0</v>
       </c>
       <c r="E20" t="n">
-        <v>53.0</v>
+        <v>44.375</v>
       </c>
       <c r="F20" t="n">
-        <v>3700.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G20" t="n">
-        <v>740.0</v>
+        <v>537.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2900.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I20" t="n">
-        <v>580.0</v>
+        <v>387.5</v>
       </c>
       <c r="J20" t="n">
-        <v>38.4</v>
+        <v>33.0</v>
       </c>
       <c r="K20" t="n">
-        <v>26.2</v>
+        <v>33.5</v>
       </c>
       <c r="L20" t="n">
-        <v>25.2</v>
+        <v>24.75</v>
       </c>
       <c r="M20" t="n">
-        <v>2.226890756302521</v>
+        <v>1.8882978723404256</v>
       </c>
     </row>
     <row r="21">
@@ -1041,37 +1041,37 @@
         <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D21" t="n">
-        <v>250.0</v>
+        <v>320.0</v>
       </c>
       <c r="E21" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F21" t="n">
-        <v>3025.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G21" t="n">
-        <v>605.0</v>
+        <v>337.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1200.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I21" t="n">
-        <v>240.0</v>
+        <v>381.25</v>
       </c>
       <c r="J21" t="n">
-        <v>48.0</v>
+        <v>26.625</v>
       </c>
       <c r="K21" t="n">
-        <v>32.0</v>
+        <v>35.625</v>
       </c>
       <c r="L21" t="n">
-        <v>33.2</v>
+        <v>24.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7730496453900708</v>
+        <v>1.6580310880829014</v>
       </c>
     </row>
   </sheetData>
